--- a/도메인.xlsx
+++ b/도메인.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,30 @@
   </si>
   <si>
     <t>多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 풍미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조리방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -387,13 +411,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,74 +450,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,6 +546,147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="이등변 삼각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17373600" y="4895850"/>
+          <a:ext cx="123825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="16200000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="이등변 삼각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18764250" y="4895850"/>
+          <a:ext cx="123825" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="5400000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,286 +1152,286 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="9"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="N9" s="17"/>
-      <c r="O9" s="5" t="s">
+      <c r="N9" s="13"/>
+      <c r="O9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="9"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="5"/>
       <c r="R9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="N10" s="18"/>
-      <c r="O10" s="5" t="s">
+      <c r="N10" s="14"/>
+      <c r="O10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="9"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="9"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O13" s="14"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="O14" s="12"/>
+      <c r="O14" s="8"/>
       <c r="P14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="4" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
-      <c r="K15" s="4" t="s">
+      <c r="H15" s="24"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="8"/>
-      <c r="O15" s="4" t="s">
+      <c r="L15" s="24"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="8"/>
-      <c r="S15" s="6" t="s">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="4"/>
+      <c r="S15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="6"/>
+      <c r="T15" s="23"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="11">
+      <c r="D16" s="22"/>
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="20">
+      <c r="H16" s="25"/>
+      <c r="I16" s="16">
         <v>1</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="11" t="s">
+      <c r="L16" s="22"/>
+      <c r="M16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="5" t="s">
+      <c r="N16" s="8"/>
+      <c r="O16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="11" t="s">
+      <c r="P16" s="22"/>
+      <c r="Q16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="5" t="s">
+      <c r="R16" s="8"/>
+      <c r="S16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="T16" s="5"/>
+      <c r="T16" s="22"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="13" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="13" t="s">
+      <c r="L17" s="22"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="13" t="s">
+      <c r="P17" s="22"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="5"/>
+      <c r="T17" s="22"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="19"/>
-      <c r="K18" s="5" t="s">
+      <c r="H18" s="25"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="9"/>
-      <c r="O18" s="5" t="s">
+      <c r="L18" s="22"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="9"/>
-      <c r="S18" s="5" t="s">
+      <c r="P18" s="22"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T18" s="5"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="19"/>
-      <c r="K19" s="5" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="9"/>
-      <c r="S19" s="5" t="s">
+      <c r="L19" s="22"/>
+      <c r="M19" s="5"/>
+      <c r="S19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="5"/>
+      <c r="T19" s="22"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="19"/>
-      <c r="K20" s="15" t="s">
+      <c r="H20" s="25"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="5"/>
+      <c r="T20" s="22"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K21" s="14"/>
-      <c r="S21" s="5" t="s">
+      <c r="K21" s="10"/>
+      <c r="S21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="5"/>
+      <c r="T21" s="22"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K22" s="14"/>
-      <c r="S22" s="5" t="s">
+      <c r="K22" s="10"/>
+      <c r="S22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="5"/>
+      <c r="T22" s="22"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K23" s="14"/>
-      <c r="S23" s="5" t="s">
+      <c r="K23" s="10"/>
+      <c r="S23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="5"/>
+      <c r="T23" s="22"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K24" s="14"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K25" s="14"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K26" s="12"/>
-      <c r="L26" s="16">
+      <c r="K26" s="8"/>
+      <c r="L26" s="12">
         <v>1</v>
       </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="10"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E28" s="10"/>
-      <c r="K28" s="5" t="s">
+      <c r="E28" s="6"/>
+      <c r="K28" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E29" s="9"/>
+      <c r="E29" s="5"/>
       <c r="J29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="E30" s="9"/>
+      <c r="E30" s="5"/>
       <c r="J30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1251,26 +1448,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="G18:H18"/>
@@ -1280,12 +1463,26 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="K27:L27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1295,462 +1492,512 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:AB39"/>
+  <dimension ref="B7:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="AE41" sqref="AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="18" width="9" style="3"/>
     <col min="19" max="19" width="8.75" style="3" customWidth="1"/>
-    <col min="20" max="25" width="9" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="3"/>
+    <col min="20" max="22" width="9" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.75" style="3" customWidth="1"/>
+    <col min="24" max="24" width="7.125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.875" style="3" customWidth="1"/>
+    <col min="26" max="26" width="9.25" style="3" customWidth="1"/>
+    <col min="27" max="27" width="7.5" style="3" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="7" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="13:25" x14ac:dyDescent="0.3">
       <c r="R8" s="3">
         <v>1</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="R9" s="17"/>
-      <c r="S9" s="5" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="5"/>
+      <c r="T9" s="22"/>
       <c r="U9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="R10" s="18"/>
-      <c r="S10" s="5" t="s">
+      <c r="R10" s="14"/>
+      <c r="S10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="M11" s="21"/>
-      <c r="R11" s="13" t="s">
+      <c r="M11" s="17"/>
+      <c r="R11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="S12" s="15"/>
+      <c r="S12" s="11"/>
       <c r="T12" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="S13" s="26"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="S14" s="26">
+      <c r="S14" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="23"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="13:25" x14ac:dyDescent="0.3">
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="S17" s="5" t="s">
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="S17" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="S18" s="5" t="s">
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="S18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="S19" s="26">
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="S19" s="21">
         <v>1</v>
       </c>
-      <c r="T19" s="9"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="S21" s="12"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="S21" s="8"/>
       <c r="T21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="C22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="G22" s="4" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="8"/>
-      <c r="K22" s="4" t="s">
+      <c r="H22" s="24"/>
+      <c r="I22" s="4"/>
+      <c r="K22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="23" t="s">
+      <c r="L22" s="24"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="8"/>
-      <c r="S22" s="4" t="s">
+      <c r="P22" s="26"/>
+      <c r="Q22" s="4"/>
+      <c r="S22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="23" t="s">
+      <c r="T22" s="24"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="8"/>
-      <c r="AA22" s="6" t="s">
+      <c r="X22" s="26"/>
+      <c r="Y22" s="4"/>
+      <c r="AA22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AB22" s="6"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11">
+      <c r="D23" s="22"/>
+      <c r="E23" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="20">
+      <c r="H23" s="25"/>
+      <c r="I23" s="16">
         <v>1</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="5" t="s">
+      <c r="J23" s="8"/>
+      <c r="K23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="22">
+      <c r="L23" s="22"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="18">
         <v>1</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="11">
+      <c r="P23" s="22"/>
+      <c r="Q23" s="7">
         <v>1</v>
       </c>
-      <c r="R23" s="12"/>
-      <c r="S23" s="5" t="s">
+      <c r="R23" s="8"/>
+      <c r="S23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="T23" s="5"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="25">
+      <c r="T23" s="22"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="20">
         <v>1</v>
       </c>
-      <c r="W23" s="5" t="s">
+      <c r="W23" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="24">
+      <c r="X23" s="22"/>
+      <c r="Y23" s="19">
         <v>1</v>
       </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="5" t="s">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AB23" s="5"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="AB23" s="22"/>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="22"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="13" t="s">
+      <c r="H24" s="25"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="9" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="5" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="13" t="s">
+      <c r="P24" s="22"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="9" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="5" t="s">
+      <c r="V24" s="5"/>
+      <c r="W24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="13" t="s">
+      <c r="X24" s="22"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AA24" s="5" t="s">
+      <c r="AA24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AB24" s="5"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G25" s="7" t="s">
+      <c r="AB24" s="22"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="G25" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="19"/>
-      <c r="K25" s="5" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="15"/>
+      <c r="K25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="5" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="9"/>
-      <c r="S25" s="5" t="s">
+      <c r="P25" s="22"/>
+      <c r="Q25" s="5"/>
+      <c r="S25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="5"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="5" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="9"/>
-      <c r="AA25" s="5" t="s">
+      <c r="X25" s="22"/>
+      <c r="Y25" s="5"/>
+      <c r="AA25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AB25" s="5"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G26" s="7" t="s">
+      <c r="AB25" s="22"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="G26" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="19"/>
-      <c r="K26" s="5" t="s">
+      <c r="H26" s="25"/>
+      <c r="I26" s="15"/>
+      <c r="K26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="AA26" s="5" t="s">
+      <c r="L26" s="22"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="AA26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AB26" s="5"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="G27" s="7" t="s">
+      <c r="AB26" s="22"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="G27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="19"/>
-      <c r="K27" s="15" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="15"/>
+      <c r="K27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AA27" s="5" t="s">
+      <c r="AA27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="AB27" s="5"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="K28" s="14"/>
-      <c r="AA28" s="5" t="s">
+      <c r="AB27" s="22"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="K28" s="10"/>
+      <c r="AA28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="AB28" s="5"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="K29" s="14"/>
-      <c r="AA29" s="5" t="s">
+      <c r="AB28" s="22"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="K29" s="10"/>
+      <c r="AA29" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="K30" s="14"/>
-      <c r="AA30" s="5" t="s">
+      <c r="AB29" s="22"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="K30" s="10"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="AB30" s="5"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="K32" s="14"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="K33" s="12"/>
-      <c r="L33" s="16">
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="30"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="K31" s="10"/>
+      <c r="Z31" s="27"/>
+      <c r="AC31" s="10"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="K32" s="10"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Z32" s="27"/>
+      <c r="AC32" s="10"/>
+    </row>
+    <row r="33" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="K33" s="8"/>
+      <c r="L33" s="12">
         <v>1</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="16"/>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="K34" s="6" t="s">
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="12"/>
+      <c r="Z33" s="27"/>
+      <c r="AC33" s="10"/>
+    </row>
+    <row r="34" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="K34" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E35" s="10"/>
-      <c r="K35" s="5" t="s">
+      <c r="L34" s="23"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6"/>
+      <c r="Z34" s="27"/>
+      <c r="AC34" s="10"/>
+    </row>
+    <row r="35" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E35" s="6"/>
+      <c r="K35" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E36" s="9"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="Z35" s="27"/>
+      <c r="AC35" s="10"/>
+    </row>
+    <row r="36" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E36" s="5"/>
       <c r="J36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="Q36" s="9"/>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.3">
-      <c r="E37" s="9"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="Z36" s="28"/>
+      <c r="AC36" s="8"/>
+    </row>
+    <row r="37" spans="5:30" x14ac:dyDescent="0.3">
+      <c r="E37" s="5"/>
       <c r="J37" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="Y37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z37" s="23"/>
+      <c r="AC37" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD37" s="23"/>
+    </row>
+    <row r="38" spans="5:30" x14ac:dyDescent="0.3">
       <c r="J38" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="Y38" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z38" s="22"/>
+      <c r="AC38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD38" s="22"/>
+    </row>
+    <row r="39" spans="5:30" x14ac:dyDescent="0.3">
       <c r="J39" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Y39" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z39" s="22"/>
+      <c r="AC39" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD39" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="K26:L26"/>
+  <mergeCells count="53">
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AC39:AD39"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="S22:T22"/>
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="AA27:AB27"/>
@@ -1765,26 +2012,27 @@
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="AA25:AB25"/>
     <mergeCell ref="W24:X24"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>